--- a/Backend/BackendApp/staticfiles/Sports.xlsx
+++ b/Backend/BackendApp/staticfiles/Sports.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisward/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eric/Desktop/CSC630 Spring/Final Project/Backend/BackendApp/staticfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A753920-DC40-0F47-9014-BC3DDECA399B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A750C1-76E3-6448-8476-10160D947CD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{204B3CE9-F6A3-A544-8A8F-84CDFC88A4ED}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>Fall Sport</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>S.A.S.E. – Supervised/Approved Exemption from Exercise and Sport</t>
-  </si>
-  <si>
-    <t>SLAM</t>
   </si>
   <si>
     <t>Soccer – Boys</t>
@@ -704,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D21C82-74BB-6042-B29E-7D12DE29BD07}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,13 +760,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -777,10 +774,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -791,10 +788,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -805,13 +802,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -819,13 +816,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -833,13 +830,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -847,13 +844,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -861,13 +858,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -875,13 +872,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -889,13 +886,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -903,13 +900,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -917,13 +914,13 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -931,13 +928,13 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="153" x14ac:dyDescent="0.2">
@@ -945,13 +942,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153" x14ac:dyDescent="0.2">
@@ -959,237 +956,235 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
